--- a/biology/Botanique/Bryopsida/Bryopsida.xlsx
+++ b/biology/Botanique/Bryopsida/Bryopsida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bryopsida (Bryopsidées) sont une classe de mousses du sous-embranchement des Musci. 
 </t>
@@ -511,9 +523,11 @@
           <t>Sous-classes selon la morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bryologues distinguent principalement, selon la disposition du sporophyte sur le gamétophyte, trois sous-classes : les mousses acrocarpes (akros sommet, et carpos fruit) dont le sporophyte est terminal (polytric, funaire (en), Mnium (en), Leucobryum…) ; les mousses pleurocarpes (pleuros côté) dont les sporophytes sont disposés latéralement sur l'axe feuillé (Hypnum…) et les mousses cladocarpes (klados  branche) donc le sporophyte est inséré sur un très court rameau latéral (Cryphaea (en), Fontinalis (en)…)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bryologues distinguent principalement, selon la disposition du sporophyte sur le gamétophyte, trois sous-classes : les mousses acrocarpes (akros sommet, et carpos fruit) dont le sporophyte est terminal (polytric, funaire (en), Mnium (en), Leucobryum…) ; les mousses pleurocarpes (pleuros côté) dont les sporophytes sont disposés latéralement sur l'axe feuillé (Hypnum…) et les mousses cladocarpes (klados  branche) donc le sporophyte est inséré sur un très court rameau latéral (Cryphaea (en), Fontinalis (en)…).
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste des sous-classes et ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>sous-classe Buxbaumiidae
 ordre Buxbaumiales
